--- a/Cleaned_Data.xlsx
+++ b/Cleaned_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -851,6 +851,1830 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Stark</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>555-123-7890</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>300 Stark Tower</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> New York</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Diana</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Prince</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>123-567-8901</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1010 Wonder Lane</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bruce</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Banner</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>706-123-0987</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>789 Gamma Drive</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Steve</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Rogers</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>999-888-7777</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>101 Shield Lane</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Thor</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Odinson</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>876-111-2222</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Asgard</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Peter</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Parker</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>123-999-5555</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>50th Avenue</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NY</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Han</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Solo</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>123-888-9999</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Millennium Falcon</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Leia</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Organa</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>123-555-1234</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>123 Rebellion Road</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Wade</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Wilson</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>111-222-3333</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>567 Mercenary Street</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Allen</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>999-111-8888</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>100 Speed Ave</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1037</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Clark</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Kent</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>111-333-4444</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Smallville</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Kara</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Zor-El</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>987-654-3210</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>National City</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Bruce</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Wayne</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>999-222-1111</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Wayne Manor</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Selina</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Kyle</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>666-999-5555</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Gotham City</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Bucky</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Barnes</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>555-123-9999</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1930 Winter Street</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Fury</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>777-888-9999</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>123 Shield Ave</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Wanda</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Maximoff</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>555-222-4444</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>123 Vision Road</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Vision</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>876-999-8888</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>567 Android Blvd</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Peter</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Quill</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>333-444-5555</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>123 Star Lord Ave</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1051</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Gamora</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Zen-Whoberi</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>111-222-3333</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Knowhere Station</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Drax</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>The Destroyer</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>444-555-6666</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Guardians Base</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1053</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Rocket</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Raccoon</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>777-888-1234</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Milano Spaceship</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Groot</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>999-111-7777</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Milano Spaceship</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1056</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Yondu</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Udonta</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>555-123-4567</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Ravagers Ship</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Star</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Lord</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>888-999-1111</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>123 Star Road</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1058</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Rhodey</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>War Machine</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>999-222-1111</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>234 Military Rd</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Pietro</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Maximoff</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>555-333-4444</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>123 Speedy Lane</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1061</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Hope</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Van Dyne</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>111-222-9999</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Ant Manor</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1063</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Jean</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>777-888-1234</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>X-Mansion</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1064</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Ororo</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Munroe</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>876-444-1111</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>X-Mansion</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1066</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Charles</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Xavier</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>111-444-7777</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>X-Mansion</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Erik</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Lehnsherr</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>999-888-7777</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Magneto's Lair</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1068</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Raven</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Darkholme</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>876-333-9999</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Mystique Base</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Kurt</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Wagner</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>123-999-4444</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>X-Mansion</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1071</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Kitty</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Pryde</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>555-666-7777</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>X-Mansion</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Colossus</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Piotr</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>999-888-7777</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>X-Mansion</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1074</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Deadpool</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Wade</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>111-555-3333</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>123 Deadpool Blvd</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1076</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Domino</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>777-111-4444</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>123 Luck Road</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1078</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Beast</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Hank</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>999-111-2222</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>X-Mansion</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Sunspot</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Roberto</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>123-444-8888</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>X-Mansion</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1081</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Iceman</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Bobby</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>777-222-9999</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>X-Mansion</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Gambit</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Remy</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>555-666-1111</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>123 Card Lane</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Warlock</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Doug</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>999-111-8888</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>X-Mansion</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1086</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Magik</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Illyana</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>123-555-2222</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Limbo Street</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1088</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Professor X</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Charles</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>999-777-4444</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>X-Mansion</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1091</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Toad</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Mortimer</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>876-444-3333</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>123 Swamp Road</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1092</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Juggernaut</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Cain</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>555-999-1111</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>123 Strength Lane</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1093</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Omega Red</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Arkady</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>888-111-4444</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>123 Soviet Base</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1094</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Black Widow</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Natasha</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>777-555-3333</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>123 Spy Lane</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1096</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Thor</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Odinson</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>999-888-5555</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Asgard</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1098</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Heimdall</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>876-222-4444</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Asgard</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1099</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Valkyrie</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>999-333-8888</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Asgard</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
